--- a/data/trans_orig/P36B02_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A197D7-5A19-4A05-AA08-5BF5EFDA2003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8948E825-0E13-4D5D-A5A2-BFA406CE4D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21DA2039-AF62-4914-A8E3-2D4E85666D06}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBB2232B-E342-4C5B-AC95-64F4ADC6F33C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="466">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>94,11%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>93,73%</t>
   </si>
   <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,928 +140,946 @@
     <t>94,21%</t>
   </si>
   <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
     <t>92,36%</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>91,31%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>91,39%</t>
   </si>
   <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>6,8%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
@@ -1337,9 +1355,6 @@
     <t>86,79%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
     <t>89,88%</t>
   </si>
   <si>
@@ -1361,9 +1376,6 @@
     <t>13,21%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
     <t>5,85%</t>
   </si>
   <si>
@@ -1388,9 +1400,6 @@
     <t>88,34%</t>
   </si>
   <si>
-    <t>89,11%</t>
-  </si>
-  <si>
     <t>87,79%</t>
   </si>
   <si>
@@ -1413,9 +1422,6 @@
   </si>
   <si>
     <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
   </si>
   <si>
     <t>9,67%</t>
@@ -1842,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E54419-EB25-4722-A15A-7338E24E7738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76730A3-15E7-4FFE-846C-F8E263D71C2A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2139,10 +2145,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>1221</v>
@@ -2190,10 +2196,10 @@
         <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -2312,7 +2318,7 @@
         <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2333,13 @@
         <v>53336</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -2342,13 +2348,13 @@
         <v>37868</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
@@ -2357,13 +2363,13 @@
         <v>91204</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,7 +2425,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2431,13 +2437,13 @@
         <v>475008</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>473</v>
@@ -2446,13 +2452,13 @@
         <v>486418</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>919</v>
@@ -2461,13 +2467,13 @@
         <v>961425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2488,13 @@
         <v>44139</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -2497,13 +2503,13 @@
         <v>29224</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -2512,7 +2518,7 @@
         <v>73364</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>82</v>
@@ -2586,13 +2592,13 @@
         <v>356008</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>366</v>
@@ -2601,13 +2607,13 @@
         <v>372713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>727</v>
@@ -2616,13 +2622,13 @@
         <v>728721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2643,13 @@
         <v>30702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2652,13 +2658,13 @@
         <v>31273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -2667,13 +2673,13 @@
         <v>61975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2735,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2741,13 +2747,13 @@
         <v>469142</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>632</v>
@@ -2756,13 +2762,13 @@
         <v>649361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>1119</v>
@@ -2771,13 +2777,13 @@
         <v>1118504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2798,13 @@
         <v>33324</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -2807,13 +2813,13 @@
         <v>27481</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -2822,10 +2828,10 @@
         <v>60804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>119</v>
@@ -3061,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061F471A-ED7B-4B7B-9128-8C3E8A72FEF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A503908-968F-4957-8F52-AE46D3A5FC6D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3203,10 +3209,10 @@
         <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>810</v>
@@ -3215,13 +3221,13 @@
         <v>826724</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3242,13 @@
         <v>23933</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3251,13 +3257,13 @@
         <v>32807</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3266,13 +3272,13 @@
         <v>56739</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3346,13 @@
         <v>638405</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>525</v>
@@ -3355,13 +3361,13 @@
         <v>559815</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>1146</v>
@@ -3370,13 +3376,13 @@
         <v>1198220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3397,13 @@
         <v>48682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -3406,13 +3412,13 @@
         <v>50440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -3421,13 +3427,13 @@
         <v>99122</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,10 +3504,10 @@
         <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>624</v>
@@ -3510,13 +3516,13 @@
         <v>665329</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>1234</v>
@@ -3525,13 +3531,13 @@
         <v>1303639</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,10 +3555,10 @@
         <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -3561,13 +3567,13 @@
         <v>42650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -3576,13 +3582,13 @@
         <v>86203</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,7 +3644,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3650,13 +3656,13 @@
         <v>568125</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>506</v>
@@ -3665,13 +3671,13 @@
         <v>577209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>1014</v>
@@ -3683,10 +3689,10 @@
         <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3707,13 @@
         <v>46492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -3716,13 +3722,13 @@
         <v>37967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -3731,13 +3737,13 @@
         <v>84460</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,28 +3811,28 @@
         <v>390241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>388</v>
       </c>
       <c r="I16" s="7">
-        <v>428056</v>
+        <v>428057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>745</v>
@@ -3835,13 +3841,13 @@
         <v>818298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3862,13 @@
         <v>39188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3871,13 +3877,13 @@
         <v>18699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -3886,13 +3892,13 @@
         <v>57887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3925,7 @@
         <v>405</v>
       </c>
       <c r="I18" s="7">
-        <v>446755</v>
+        <v>446756</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3948,7 +3954,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3960,13 +3966,13 @@
         <v>532555</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>670</v>
@@ -3975,13 +3981,13 @@
         <v>717186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>1151</v>
@@ -3990,13 +3996,13 @@
         <v>1249742</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4017,13 @@
         <v>27082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -4026,13 +4032,13 @@
         <v>24803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -4041,13 +4047,13 @@
         <v>51884</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,10 +4124,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H22" s="7">
         <v>3102</v>
@@ -4130,13 +4136,13 @@
         <v>3345019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>6100</v>
@@ -4148,10 +4154,10 @@
         <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,10 +4175,10 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H23" s="7">
         <v>190</v>
@@ -4181,13 +4187,13 @@
         <v>207366</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M23" s="7">
         <v>400</v>
@@ -4199,10 +4205,10 @@
         <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,7 +4286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1E5B3B-3D3A-404B-900D-3297FA1FA236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721E39A0-7EC3-4544-A7AB-CE660A1A1E50}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4297,7 +4303,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4404,13 +4410,13 @@
         <v>395879</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>370</v>
@@ -4419,13 +4425,13 @@
         <v>362495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M4" s="7">
         <v>741</v>
@@ -4434,13 +4440,13 @@
         <v>758374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4461,13 @@
         <v>21555</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -4470,13 +4476,13 @@
         <v>33260</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -4485,13 +4491,13 @@
         <v>54815</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4565,13 @@
         <v>527164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>543</v>
@@ -4577,10 +4583,10 @@
         <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>1048</v>
@@ -4589,13 +4595,13 @@
         <v>1055513</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4616,13 @@
         <v>62412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -4628,10 +4634,10 @@
         <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
         <v>97</v>
@@ -4640,13 +4646,13 @@
         <v>97606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4720,13 @@
         <v>604452</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>624</v>
@@ -4732,10 +4738,10 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>1204</v>
@@ -4744,13 +4750,13 @@
         <v>1226067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4771,13 @@
         <v>62668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -4783,10 +4789,10 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -4795,13 +4801,13 @@
         <v>101559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,7 +4863,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4869,13 +4875,13 @@
         <v>577928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
@@ -4884,13 +4890,13 @@
         <v>600735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>1078</v>
@@ -4899,13 +4905,13 @@
         <v>1178664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4926,13 @@
         <v>67037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -4935,13 +4941,13 @@
         <v>46256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>103</v>
@@ -4950,13 +4956,13 @@
         <v>113292</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5030,13 @@
         <v>439809</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>408</v>
@@ -5039,13 +5045,13 @@
         <v>466923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
         <v>800</v>
@@ -5054,13 +5060,13 @@
         <v>906732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5081,13 @@
         <v>38109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5090,13 +5096,13 @@
         <v>29926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -5105,13 +5111,13 @@
         <v>68035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,7 +5173,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5179,13 +5185,13 @@
         <v>562834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
         <v>630</v>
@@ -5194,13 +5200,13 @@
         <v>750925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>1226</v>
@@ -5209,13 +5215,13 @@
         <v>1313759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5236,13 @@
         <v>27602</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -5245,13 +5251,13 @@
         <v>27006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -5260,13 +5266,13 @@
         <v>54608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5340,13 @@
         <v>3108065</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H22" s="7">
         <v>3132</v>
@@ -5349,28 +5355,28 @@
         <v>3331043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M22" s="7">
         <v>6097</v>
       </c>
       <c r="N22" s="7">
-        <v>6439108</v>
+        <v>6439109</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,13 +5391,13 @@
         <v>279383</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H23" s="7">
         <v>203</v>
@@ -5400,13 +5406,13 @@
         <v>210532</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M23" s="7">
         <v>462</v>
@@ -5415,13 +5421,13 @@
         <v>489915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,7 +5469,7 @@
         <v>6559</v>
       </c>
       <c r="N24" s="7">
-        <v>6929023</v>
+        <v>6929024</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5499,7 +5505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC4AB91-34E9-4BBE-8872-F65D825040F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6C8040-040F-4C97-8241-8F936C9FAB0D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5516,7 +5522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5623,13 +5629,13 @@
         <v>329153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>188</v>
@@ -5638,13 +5644,13 @@
         <v>323907</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
@@ -5653,13 +5659,13 @@
         <v>653060</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5680,13 @@
         <v>48526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5689,13 +5695,13 @@
         <v>31050</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -5704,13 +5710,13 @@
         <v>79576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5784,13 @@
         <v>367111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H7" s="7">
         <v>411</v>
@@ -5793,13 +5799,13 @@
         <v>429408</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M7" s="7">
         <v>674</v>
@@ -5808,13 +5814,13 @@
         <v>796518</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5835,13 @@
         <v>61285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -5844,13 +5850,13 @@
         <v>69169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -5859,13 +5865,13 @@
         <v>130455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5939,13 @@
         <v>487400</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H10" s="7">
         <v>743</v>
@@ -5948,13 +5954,13 @@
         <v>512287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M10" s="7">
         <v>1227</v>
@@ -5963,13 +5969,13 @@
         <v>999686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5990,13 @@
         <v>69852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H11" s="7">
         <v>103</v>
@@ -5999,13 +6005,13 @@
         <v>71189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>165</v>
@@ -6014,13 +6020,13 @@
         <v>141041</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,7 +6082,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6088,13 +6094,13 @@
         <v>635312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>1023</v>
@@ -6103,13 +6109,13 @@
         <v>666112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>1610</v>
@@ -6118,13 +6124,13 @@
         <v>1301424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6145,13 @@
         <v>88678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -6154,13 +6160,13 @@
         <v>80742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
@@ -6169,13 +6175,13 @@
         <v>169420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,13 +6249,13 @@
         <v>508588</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H16" s="7">
         <v>880</v>
@@ -6258,13 +6264,13 @@
         <v>520757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>1452</v>
@@ -6273,13 +6279,13 @@
         <v>1029345</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6300,13 @@
         <v>91569</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -6309,13 +6315,13 @@
         <v>76306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -6324,13 +6330,13 @@
         <v>167875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,7 +6392,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6398,13 +6404,13 @@
         <v>620041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>1555</v>
@@ -6413,13 +6419,13 @@
         <v>940307</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>432</v>
+        <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M19" s="7">
         <v>2475</v>
@@ -6428,13 +6434,13 @@
         <v>1560348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6455,13 @@
         <v>77714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -6464,13 +6470,13 @@
         <v>86330</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>440</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M20" s="7">
         <v>261</v>
@@ -6479,13 +6485,13 @@
         <v>164044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6559,13 @@
         <v>2947604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>4800</v>
@@ -6568,13 +6574,13 @@
         <v>3392778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
         <v>7776</v>
@@ -6583,13 +6589,13 @@
         <v>6340381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6610,13 @@
         <v>437624</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -6619,13 +6625,13 @@
         <v>414786</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>458</v>
+        <v>99</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M23" s="7">
         <v>963</v>
@@ -6634,13 +6640,13 @@
         <v>852411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B02_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8948E825-0E13-4D5D-A5A2-BFA406CE4D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E24E95-DC4B-4D06-89B4-EA13B8FEC9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBB2232B-E342-4C5B-AC95-64F4ADC6F33C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21919D9E-7ABB-4AB7-9F48-87E8C94C2DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1366 +77,1378 @@
     <t>94,11%</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>93,73%</t>
   </si>
   <si>
-    <t>92,15%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>94,3%</t>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>89,03%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>12,75%</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76730A3-15E7-4FFE-846C-F8E263D71C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB82BE9D-7712-4F23-82A0-358C544744D4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2145,7 +2157,7 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>36</v>
@@ -2199,7 +2211,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -2318,7 +2330,7 @@
         <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2345,13 @@
         <v>53336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -2348,13 +2360,13 @@
         <v>37868</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
@@ -2363,13 +2375,13 @@
         <v>91204</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,7 +2437,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2437,13 +2449,13 @@
         <v>475008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>473</v>
@@ -2452,13 +2464,13 @@
         <v>486418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>919</v>
@@ -2467,13 +2479,13 @@
         <v>961425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2500,13 @@
         <v>44139</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -2503,13 +2515,13 @@
         <v>29224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -2518,10 +2530,10 @@
         <v>73364</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>83</v>
@@ -2628,7 +2640,7 @@
         <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2655,13 @@
         <v>30702</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2658,13 +2670,13 @@
         <v>31273</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -2673,13 +2685,13 @@
         <v>61975</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2747,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2747,13 +2759,13 @@
         <v>469142</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>632</v>
@@ -2762,13 +2774,13 @@
         <v>649361</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>1119</v>
@@ -2777,10 +2789,10 @@
         <v>1118504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>36</v>
@@ -2798,13 +2810,13 @@
         <v>33324</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -2813,13 +2825,13 @@
         <v>27481</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -2828,13 +2840,13 @@
         <v>60804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2914,13 @@
         <v>3042542</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>3108</v>
@@ -2917,13 +2929,13 @@
         <v>3185936</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>6094</v>
@@ -2932,13 +2944,13 @@
         <v>6228477</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2965,13 @@
         <v>233120</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>188</v>
@@ -2968,13 +2980,13 @@
         <v>192129</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>415</v>
@@ -2983,13 +2995,13 @@
         <v>425249</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,7 +3057,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3067,7 +3079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A503908-968F-4957-8F52-AE46D3A5FC6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA10060-9B31-4601-B456-A797D3D83C47}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3084,7 +3096,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3191,13 +3203,13 @@
         <v>429300</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>389</v>
@@ -3206,13 +3218,13 @@
         <v>397423</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>810</v>
@@ -3221,13 +3233,13 @@
         <v>826724</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3254,13 @@
         <v>23933</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3257,13 +3269,13 @@
         <v>32807</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3272,13 +3284,13 @@
         <v>56739</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3358,13 @@
         <v>638405</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
         <v>525</v>
@@ -3361,13 +3373,13 @@
         <v>559815</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>1146</v>
@@ -3376,13 +3388,13 @@
         <v>1198220</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,10 +3409,10 @@
         <v>48682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>165</v>
@@ -3501,7 +3513,7 @@
         <v>638310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>172</v>
@@ -3531,10 +3543,10 @@
         <v>1303639</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>178</v>
@@ -3552,7 +3564,7 @@
         <v>43553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>179</v>
@@ -3582,13 +3594,13 @@
         <v>86203</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3656,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3737,7 +3749,7 @@
         <v>84460</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>200</v>
@@ -3823,7 +3835,7 @@
         <v>388</v>
       </c>
       <c r="I16" s="7">
-        <v>428057</v>
+        <v>428056</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>205</v>
@@ -3841,13 +3853,13 @@
         <v>818298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3874,13 @@
         <v>39188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3877,13 +3889,13 @@
         <v>18699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -3892,13 +3904,13 @@
         <v>57887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3937,7 @@
         <v>405</v>
       </c>
       <c r="I18" s="7">
-        <v>446756</v>
+        <v>446755</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3954,7 +3966,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3966,13 +3978,13 @@
         <v>532555</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H19" s="7">
         <v>670</v>
@@ -3981,13 +3993,13 @@
         <v>717186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>1151</v>
@@ -3996,13 +4008,13 @@
         <v>1249742</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4029,13 @@
         <v>27082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -4032,13 +4044,13 @@
         <v>24803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -4047,13 +4059,13 @@
         <v>51884</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,10 +4136,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>3102</v>
@@ -4136,13 +4148,13 @@
         <v>3345019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>6100</v>
@@ -4151,13 +4163,13 @@
         <v>6541954</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,10 +4187,10 @@
         <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>190</v>
@@ -4187,13 +4199,13 @@
         <v>207366</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>400</v>
@@ -4202,13 +4214,13 @@
         <v>436296</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4276,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4286,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721E39A0-7EC3-4544-A7AB-CE660A1A1E50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D919802-3F9A-4396-8AE2-6B7F268E8D76}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4303,7 +4315,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4410,13 +4422,13 @@
         <v>395879</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7">
         <v>370</v>
@@ -4425,13 +4437,13 @@
         <v>362495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>741</v>
@@ -4440,13 +4452,13 @@
         <v>758374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4473,13 @@
         <v>21555</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -4476,10 +4488,10 @@
         <v>33260</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>259</v>
@@ -4565,13 +4577,13 @@
         <v>527164</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>543</v>
@@ -4580,7 +4592,7 @@
         <v>528350</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>265</v>
@@ -4592,16 +4604,16 @@
         <v>1048</v>
       </c>
       <c r="N7" s="7">
-        <v>1055513</v>
+        <v>1055514</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4628,13 @@
         <v>62412</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -4631,13 +4643,13 @@
         <v>35194</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M8" s="7">
         <v>97</v>
@@ -4646,13 +4658,13 @@
         <v>97606</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,7 +4706,7 @@
         <v>1145</v>
       </c>
       <c r="N9" s="7">
-        <v>1153119</v>
+        <v>1153120</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4720,13 +4732,13 @@
         <v>604452</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>624</v>
@@ -4738,10 +4750,10 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>1204</v>
@@ -4750,10 +4762,10 @@
         <v>1226067</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>282</v>
@@ -4792,7 +4804,7 @@
         <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -4801,13 +4813,13 @@
         <v>101559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,7 +4875,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4875,13 +4887,13 @@
         <v>577928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
@@ -4890,13 +4902,13 @@
         <v>600735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>1078</v>
@@ -4905,13 +4917,13 @@
         <v>1178664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4938,13 @@
         <v>67037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -4941,13 +4953,13 @@
         <v>46256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>103</v>
@@ -4956,13 +4968,13 @@
         <v>113292</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5042,13 @@
         <v>439809</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>408</v>
@@ -5048,10 +5060,10 @@
         <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>800</v>
@@ -5060,13 +5072,13 @@
         <v>906732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5093,13 @@
         <v>38109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5099,10 +5111,10 @@
         <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -5111,13 +5123,13 @@
         <v>68035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,7 +5185,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5185,13 +5197,13 @@
         <v>562834</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>630</v>
@@ -5200,13 +5212,13 @@
         <v>750925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>1226</v>
@@ -5215,13 +5227,13 @@
         <v>1313759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5248,13 @@
         <v>27602</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -5251,13 +5263,13 @@
         <v>27006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -5266,13 +5278,13 @@
         <v>54608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5352,13 @@
         <v>3108065</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>3132</v>
@@ -5355,28 +5367,28 @@
         <v>3331043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>6097</v>
       </c>
       <c r="N22" s="7">
-        <v>6439109</v>
+        <v>6439108</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5403,13 @@
         <v>279383</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H23" s="7">
         <v>203</v>
@@ -5406,13 +5418,13 @@
         <v>210532</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M23" s="7">
         <v>462</v>
@@ -5421,13 +5433,13 @@
         <v>489915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>352</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,7 +5481,7 @@
         <v>6559</v>
       </c>
       <c r="N24" s="7">
-        <v>6929024</v>
+        <v>6929023</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5483,7 +5495,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5505,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6C8040-040F-4C97-8241-8F936C9FAB0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03234732-AFB6-443F-AE1F-FCC2906067CD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5522,7 +5534,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5629,13 +5641,13 @@
         <v>329153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>350</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7">
         <v>188</v>
@@ -5644,13 +5656,13 @@
         <v>323907</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
@@ -5659,13 +5671,13 @@
         <v>653060</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5692,13 @@
         <v>48526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>357</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -5695,13 +5707,13 @@
         <v>31050</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -5710,13 +5722,13 @@
         <v>79576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5796,13 @@
         <v>367111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H7" s="7">
         <v>411</v>
@@ -5799,13 +5811,13 @@
         <v>429408</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M7" s="7">
         <v>674</v>
@@ -5814,13 +5826,13 @@
         <v>796518</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5847,13 @@
         <v>61285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -5850,13 +5862,13 @@
         <v>69169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -5865,13 +5877,13 @@
         <v>130455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5951,13 @@
         <v>487400</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>384</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
         <v>743</v>
@@ -5954,13 +5966,13 @@
         <v>512287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M10" s="7">
         <v>1227</v>
@@ -5969,13 +5981,13 @@
         <v>999686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6002,13 @@
         <v>69852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>392</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H11" s="7">
         <v>103</v>
@@ -6005,13 +6017,13 @@
         <v>71189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M11" s="7">
         <v>165</v>
@@ -6020,13 +6032,13 @@
         <v>141041</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6094,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6094,13 +6106,13 @@
         <v>635312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>1023</v>
@@ -6109,13 +6121,13 @@
         <v>666112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1610</v>
@@ -6124,13 +6136,13 @@
         <v>1301424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6157,13 @@
         <v>88678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -6160,13 +6172,13 @@
         <v>80742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>413</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
@@ -6175,13 +6187,13 @@
         <v>169420</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6261,13 @@
         <v>508588</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H16" s="7">
         <v>880</v>
@@ -6264,13 +6276,13 @@
         <v>520757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M16" s="7">
         <v>1452</v>
@@ -6279,13 +6291,13 @@
         <v>1029345</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6312,13 @@
         <v>91569</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -6315,13 +6327,13 @@
         <v>76306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -6330,13 +6342,13 @@
         <v>167875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,7 +6404,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6401,16 +6413,16 @@
         <v>920</v>
       </c>
       <c r="D19" s="7">
-        <v>620041</v>
+        <v>620040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>440</v>
       </c>
       <c r="H19" s="7">
         <v>1555</v>
@@ -6419,13 +6431,13 @@
         <v>940307</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>56</v>
+        <v>441</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M19" s="7">
         <v>2475</v>
@@ -6434,13 +6446,13 @@
         <v>1560348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6467,13 @@
         <v>77714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>447</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -6470,13 +6482,13 @@
         <v>86330</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>449</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M20" s="7">
         <v>261</v>
@@ -6485,13 +6497,13 @@
         <v>164044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,7 +6515,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6559,13 +6571,13 @@
         <v>2947604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>4800</v>
@@ -6574,13 +6586,13 @@
         <v>3392778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>89</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M22" s="7">
         <v>7776</v>
@@ -6589,13 +6601,13 @@
         <v>6340381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6622,13 @@
         <v>437624</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -6625,13 +6637,13 @@
         <v>414786</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>963</v>
@@ -6640,13 +6652,13 @@
         <v>852411</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,7 +6714,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B02_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E24E95-DC4B-4D06-89B4-EA13B8FEC9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A654FC09-E3EE-4723-9FA5-117CC1C81D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21919D9E-7ABB-4AB7-9F48-87E8C94C2DA4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FD6D4315-0D72-4574-B38F-0EB5BA6CA423}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="527">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>94,21%</t>
@@ -185,7 +185,7 @@
     <t>6,95%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>91,65%</t>
@@ -242,7 +242,7 @@
     <t>8,47%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>91,5%</t>
@@ -293,7 +293,7 @@
     <t>8,96%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>92,06%</t>
@@ -344,474 +344,567 @@
     <t>9,72%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
     <t>3,27%</t>
   </si>
   <si>
@@ -989,9 +1082,6 @@
     <t>91,02%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
     <t>7,97%</t>
   </si>
   <si>
@@ -1010,46 +1100,91 @@
     <t>6,98%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>91,75%</t>
@@ -1058,9 +1193,6 @@
     <t>90,76%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
     <t>94,06%</t>
   </si>
   <si>
@@ -1082,9 +1214,6 @@
     <t>8,25%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
     <t>9,24%</t>
   </si>
   <si>
@@ -1109,346 +1238,388 @@
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>87,64%</t>
   </si>
   <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
     <t>85,52%</t>
   </si>
   <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>14,48%</t>
   </si>
   <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
   </si>
   <si>
     <t>91,07%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +2031,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB82BE9D-7712-4F23-82A0-358C544744D4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16E0F14-99F9-4FA4-80DE-87626A808B37}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2166,7 +2337,7 @@
         <v>1221</v>
       </c>
       <c r="N7" s="7">
-        <v>1282519</v>
+        <v>1282520</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -2268,7 +2439,7 @@
         <v>1293</v>
       </c>
       <c r="N9" s="7">
-        <v>1360100</v>
+        <v>1360101</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2753,10 +2924,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>487</v>
+        <v>278</v>
       </c>
       <c r="D19" s="7">
-        <v>469142</v>
+        <v>269043</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>102</v>
@@ -2768,10 +2939,10 @@
         <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>632</v>
+        <v>352</v>
       </c>
       <c r="I19" s="7">
-        <v>649361</v>
+        <v>325726</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>105</v>
@@ -2783,10 +2954,10 @@
         <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>1119</v>
+        <v>630</v>
       </c>
       <c r="N19" s="7">
-        <v>1118504</v>
+        <v>594769</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>108</v>
@@ -2795,7 +2966,7 @@
         <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,49 +2975,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7">
-        <v>33324</v>
+        <v>23540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>27481</v>
+        <v>17208</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="N20" s="7">
-        <v>60804</v>
+        <v>40748</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,10 +3026,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2870,10 +3041,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2885,10 +3056,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2902,55 +3073,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2986</v>
+        <v>209</v>
       </c>
       <c r="D22" s="7">
-        <v>3042542</v>
+        <v>200100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
-        <v>3108</v>
+        <v>280</v>
       </c>
       <c r="I22" s="7">
-        <v>3185936</v>
+        <v>323635</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>6094</v>
+        <v>489</v>
       </c>
       <c r="N22" s="7">
-        <v>6228477</v>
+        <v>523735</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,49 +3130,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>233120</v>
+        <v>9783</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>192129</v>
+        <v>10273</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
-        <v>415</v>
+        <v>21</v>
       </c>
       <c r="N23" s="7">
-        <v>425249</v>
+        <v>20056</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,63 +3181,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2986</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3042541</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3108</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3185936</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6094</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6228477</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>227</v>
+      </c>
+      <c r="D26" s="7">
+        <v>233120</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>188</v>
+      </c>
+      <c r="I26" s="7">
+        <v>192129</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>415</v>
+      </c>
+      <c r="N26" s="7">
+        <v>425249</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
-        <v>3275662</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3275661</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3378065</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6509</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6653726</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3079,8 +3406,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA10060-9B31-4601-B456-A797D3D83C47}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5888F256-7A0E-494E-982C-D3374F6A0C55}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3096,7 +3423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3203,13 +3530,13 @@
         <v>429300</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>389</v>
@@ -3218,13 +3545,13 @@
         <v>397423</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>810</v>
@@ -3233,13 +3560,13 @@
         <v>826724</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3581,13 @@
         <v>23933</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3269,13 +3596,13 @@
         <v>32807</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3284,13 +3611,13 @@
         <v>56739</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,10 +3688,10 @@
         <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>525</v>
@@ -3373,13 +3700,13 @@
         <v>559815</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>1146</v>
@@ -3388,13 +3715,13 @@
         <v>1198220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,10 +3739,10 @@
         <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -3424,13 +3751,13 @@
         <v>50440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -3439,13 +3766,13 @@
         <v>99122</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3840,13 @@
         <v>638310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>624</v>
@@ -3528,13 +3855,13 @@
         <v>665329</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>1234</v>
@@ -3543,13 +3870,13 @@
         <v>1303639</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3891,13 @@
         <v>43553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -3579,13 +3906,13 @@
         <v>42650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -3594,13 +3921,13 @@
         <v>86203</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3995,13 @@
         <v>568125</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>506</v>
@@ -3683,13 +4010,13 @@
         <v>577209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>1014</v>
@@ -3701,10 +4028,10 @@
         <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +4046,13 @@
         <v>46492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -3734,13 +4061,13 @@
         <v>37967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -3752,10 +4079,10 @@
         <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +4150,13 @@
         <v>390241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>388</v>
@@ -3838,13 +4165,13 @@
         <v>428056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>745</v>
@@ -3853,13 +4180,13 @@
         <v>818298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +4201,13 @@
         <v>39188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3889,13 +4216,13 @@
         <v>18699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -3904,13 +4231,13 @@
         <v>57887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,49 +4299,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>481</v>
+        <v>270</v>
       </c>
       <c r="D19" s="7">
-        <v>532555</v>
+        <v>296549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
-        <v>670</v>
+        <v>334</v>
       </c>
       <c r="I19" s="7">
-        <v>717186</v>
+        <v>344011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
-        <v>1151</v>
+        <v>604</v>
       </c>
       <c r="N19" s="7">
-        <v>1249742</v>
+        <v>640561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4350,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>27082</v>
+        <v>13237</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>24803</v>
+        <v>8999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>51884</v>
+        <v>22236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,10 +4401,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4416,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>741989</v>
+        <v>353010</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4104,10 +4431,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1301626</v>
+        <v>662797</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4121,55 +4448,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2998</v>
+        <v>211</v>
       </c>
       <c r="D22" s="7">
-        <v>3196935</v>
+        <v>236006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
-        <v>3102</v>
+        <v>336</v>
       </c>
       <c r="I22" s="7">
-        <v>3345019</v>
+        <v>373175</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
-        <v>6100</v>
+        <v>547</v>
       </c>
       <c r="N22" s="7">
-        <v>6541954</v>
+        <v>609181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4505,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>228930</v>
+        <v>13845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>207366</v>
+        <v>15804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="N23" s="7">
-        <v>436296</v>
+        <v>29649</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,63 +4556,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2998</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3196935</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3102</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3345019</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6100</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6541954</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>210</v>
+      </c>
+      <c r="D26" s="7">
+        <v>228930</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="7">
+        <v>190</v>
+      </c>
+      <c r="I26" s="7">
+        <v>207366</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M26" s="7">
+        <v>400</v>
+      </c>
+      <c r="N26" s="7">
+        <v>436296</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425865</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3292</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3552385</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6500</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6978250</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4298,8 +4781,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D919802-3F9A-4396-8AE2-6B7F268E8D76}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C776A5-0E5C-4B6D-88C8-84E183E2D3AC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4315,7 +4798,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4422,13 +4905,13 @@
         <v>395879</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>370</v>
@@ -4437,13 +4920,13 @@
         <v>362495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>741</v>
@@ -4452,13 +4935,13 @@
         <v>758374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,10 +4956,10 @@
         <v>21555</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>81</v>
@@ -4488,13 +4971,13 @@
         <v>33260</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -4503,13 +4986,13 @@
         <v>54815</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,10 +5063,10 @@
         <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>543</v>
@@ -4592,28 +5075,28 @@
         <v>528350</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>1048</v>
       </c>
       <c r="N7" s="7">
-        <v>1055514</v>
+        <v>1055513</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,10 +5114,10 @@
         <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -4643,13 +5126,13 @@
         <v>35194</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>97</v>
@@ -4658,13 +5141,13 @@
         <v>97606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,7 +5189,7 @@
         <v>1145</v>
       </c>
       <c r="N9" s="7">
-        <v>1153120</v>
+        <v>1153119</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4732,13 +5215,13 @@
         <v>604452</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>624</v>
@@ -4750,10 +5233,10 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>1204</v>
@@ -4762,13 +5245,13 @@
         <v>1226067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +5266,13 @@
         <v>62668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -4801,10 +5284,10 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -4813,13 +5296,13 @@
         <v>101559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +5370,13 @@
         <v>577928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
@@ -4902,13 +5385,13 @@
         <v>600735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>1078</v>
@@ -4917,13 +5400,13 @@
         <v>1178664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +5421,13 @@
         <v>67037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -4953,13 +5436,13 @@
         <v>46256</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
         <v>103</v>
@@ -4968,13 +5451,13 @@
         <v>113292</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5525,13 @@
         <v>439809</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="H16" s="7">
         <v>408</v>
@@ -5057,13 +5540,13 @@
         <v>466923</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>800</v>
@@ -5072,13 +5555,13 @@
         <v>906732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5576,13 @@
         <v>38109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5108,13 +5591,13 @@
         <v>29926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -5123,13 +5606,13 @@
         <v>68035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,49 +5674,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>596</v>
+        <v>312</v>
       </c>
       <c r="D19" s="7">
-        <v>562834</v>
+        <v>321446</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
-        <v>630</v>
+        <v>335</v>
       </c>
       <c r="I19" s="7">
-        <v>750925</v>
+        <v>358140</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
-        <v>1226</v>
+        <v>647</v>
       </c>
       <c r="N19" s="7">
-        <v>1313759</v>
+        <v>679586</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,49 +5725,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7">
-        <v>27602</v>
+        <v>12884</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>27006</v>
+        <v>19622</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="N20" s="7">
-        <v>54608</v>
+        <v>32506</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,10 +5776,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>626</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>590436</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5308,10 +5791,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5323,10 +5806,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1281</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1368367</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5340,55 +5823,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2965</v>
+        <v>284</v>
       </c>
       <c r="D22" s="7">
-        <v>3108065</v>
+        <v>241388</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
-        <v>3132</v>
+        <v>295</v>
       </c>
       <c r="I22" s="7">
-        <v>3331043</v>
+        <v>392785</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
-        <v>6097</v>
+        <v>579</v>
       </c>
       <c r="N22" s="7">
-        <v>6439108</v>
+        <v>634173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,49 +5880,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>279383</v>
+        <v>14718</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="H23" s="7">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>210532</v>
+        <v>7384</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
-        <v>462</v>
+        <v>23</v>
       </c>
       <c r="N23" s="7">
-        <v>489915</v>
+        <v>22102</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,63 +5931,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256106</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>656275</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2965</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3108065</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3132</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3331043</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6097</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6439108</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>259</v>
+      </c>
+      <c r="D26" s="7">
+        <v>279383</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H26" s="7">
+        <v>203</v>
+      </c>
+      <c r="I26" s="7">
+        <v>210532</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M26" s="7">
+        <v>462</v>
+      </c>
+      <c r="N26" s="7">
+        <v>489915</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3224</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3387448</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3335</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3541575</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6559</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6929023</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5517,8 +6156,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03234732-AFB6-443F-AE1F-FCC2906067CD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6033D353-362D-46A8-BF51-2C55C34F50B5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5534,7 +6173,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5638,46 +6277,46 @@
         <v>150</v>
       </c>
       <c r="D4" s="7">
-        <v>329153</v>
+        <v>351463</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="H4" s="7">
         <v>188</v>
       </c>
       <c r="I4" s="7">
-        <v>323907</v>
+        <v>286003</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="M4" s="7">
         <v>338</v>
       </c>
       <c r="N4" s="7">
-        <v>653060</v>
+        <v>637467</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,46 +6328,46 @@
         <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>48526</v>
+        <v>48524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>31050</v>
+        <v>27197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
       </c>
       <c r="N5" s="7">
-        <v>79576</v>
+        <v>75720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,7 +6379,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5755,7 +6394,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5770,7 +6409,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5793,46 +6432,46 @@
         <v>263</v>
       </c>
       <c r="D7" s="7">
-        <v>367111</v>
+        <v>365470</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="H7" s="7">
         <v>411</v>
       </c>
       <c r="I7" s="7">
-        <v>429408</v>
+        <v>392106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="M7" s="7">
         <v>674</v>
       </c>
       <c r="N7" s="7">
-        <v>796518</v>
+        <v>757576</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,46 +6483,46 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>61285</v>
+        <v>58077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
       </c>
       <c r="I8" s="7">
-        <v>69169</v>
+        <v>119398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
       </c>
       <c r="N8" s="7">
-        <v>130455</v>
+        <v>177475</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,7 +6534,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5910,7 +6549,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5925,7 +6564,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5948,46 +6587,46 @@
         <v>484</v>
       </c>
       <c r="D10" s="7">
-        <v>487400</v>
+        <v>469390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>437</v>
       </c>
       <c r="H10" s="7">
         <v>743</v>
       </c>
       <c r="I10" s="7">
-        <v>512287</v>
+        <v>476115</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="M10" s="7">
         <v>1227</v>
       </c>
       <c r="N10" s="7">
-        <v>999686</v>
+        <v>945505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,46 +6638,46 @@
         <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>69852</v>
+        <v>66948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="H11" s="7">
         <v>103</v>
       </c>
       <c r="I11" s="7">
-        <v>71189</v>
+        <v>66353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="M11" s="7">
         <v>165</v>
       </c>
       <c r="N11" s="7">
-        <v>141041</v>
+        <v>133301</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +6689,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6065,7 +6704,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6080,7 +6719,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6103,46 +6742,46 @@
         <v>587</v>
       </c>
       <c r="D13" s="7">
-        <v>635312</v>
+        <v>804954</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>453</v>
       </c>
       <c r="H13" s="7">
         <v>1023</v>
       </c>
       <c r="I13" s="7">
-        <v>666112</v>
+        <v>638797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>1610</v>
       </c>
       <c r="N13" s="7">
-        <v>1301424</v>
+        <v>1443752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>412</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,46 +6793,46 @@
         <v>78</v>
       </c>
       <c r="D14" s="7">
-        <v>88678</v>
+        <v>82832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
       </c>
       <c r="I14" s="7">
-        <v>80742</v>
+        <v>73701</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>195</v>
       </c>
       <c r="N14" s="7">
-        <v>169420</v>
+        <v>156533</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6844,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6220,7 +6859,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6235,7 +6874,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6258,46 +6897,46 @@
         <v>572</v>
       </c>
       <c r="D16" s="7">
-        <v>508588</v>
+        <v>476684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="H16" s="7">
         <v>880</v>
       </c>
       <c r="I16" s="7">
-        <v>520757</v>
+        <v>478366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="M16" s="7">
         <v>1452</v>
       </c>
       <c r="N16" s="7">
-        <v>1029345</v>
+        <v>955050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,46 +6948,46 @@
         <v>91</v>
       </c>
       <c r="D17" s="7">
-        <v>91569</v>
+        <v>84550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
       </c>
       <c r="I17" s="7">
-        <v>76306</v>
+        <v>69539</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
       </c>
       <c r="N17" s="7">
-        <v>167875</v>
+        <v>154089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6999,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6375,7 +7014,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6390,7 +7029,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6410,49 +7049,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>920</v>
+        <v>508</v>
       </c>
       <c r="D19" s="7">
-        <v>620040</v>
+        <v>325944</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="H19" s="7">
-        <v>1555</v>
+        <v>747</v>
       </c>
       <c r="I19" s="7">
-        <v>940307</v>
+        <v>569497</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>441</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
-        <v>2475</v>
+        <v>1255</v>
       </c>
       <c r="N19" s="7">
-        <v>1560348</v>
+        <v>895441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,49 +7100,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>77714</v>
+        <v>42221</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="H20" s="7">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>86330</v>
+        <v>38871</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>449</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="M20" s="7">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="N20" s="7">
-        <v>164044</v>
+        <v>81092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,10 +7151,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6527,10 +7166,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6542,10 +7181,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6559,55 +7198,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2976</v>
+        <v>412</v>
       </c>
       <c r="D22" s="7">
-        <v>2947604</v>
+        <v>253567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
-        <v>4800</v>
+        <v>808</v>
       </c>
       <c r="I22" s="7">
-        <v>3392778</v>
+        <v>387801</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="M22" s="7">
-        <v>7776</v>
+        <v>1220</v>
       </c>
       <c r="N22" s="7">
-        <v>6340381</v>
+        <v>641368</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,49 +7255,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7">
-        <v>437624</v>
+        <v>29192</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>463</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
-        <v>563</v>
+        <v>73</v>
       </c>
       <c r="I23" s="7">
-        <v>414786</v>
+        <v>38030</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>433</v>
+        <v>505</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="M23" s="7">
-        <v>963</v>
+        <v>119</v>
       </c>
       <c r="N23" s="7">
-        <v>852411</v>
+        <v>67222</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,63 +7306,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2976</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3047473</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4800</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3228685</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7776</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6276158</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>400</v>
+      </c>
+      <c r="D26" s="7">
+        <v>412344</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H26" s="7">
+        <v>563</v>
+      </c>
+      <c r="I26" s="7">
+        <v>433089</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M26" s="7">
+        <v>963</v>
+      </c>
+      <c r="N26" s="7">
+        <v>845433</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5363</v>
       </c>
-      <c r="I24" s="7">
-        <v>3807564</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3661774</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8739</v>
       </c>
-      <c r="N24" s="7">
-        <v>7192792</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>7121591</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
